--- a/Parkinson/Resting State Preprocessing.xlsx
+++ b/Parkinson/Resting State Preprocessing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senthilp/Desktop/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senthilp/Desktop/mne_tutorial/Parkinson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD2528-871D-1E4A-9A5A-80065FF99478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B285A9B-7C3E-C649-9E51-1305BA901868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{7ED920CE-DA5A-214A-8589-5B14E1C1A3DE}"/>
   </bookViews>
@@ -360,32 +360,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,23 +703,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A021C20-3F8E-6B4C-BE56-90DC16C06AA7}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.1640625" customWidth="1"/>
-    <col min="3" max="3" width="73.6640625" customWidth="1"/>
+    <col min="3" max="3" width="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -733,28 +733,28 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -762,10 +762,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -773,19 +773,19 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -793,19 +793,19 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -813,28 +813,28 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -842,10 +842,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -853,38 +853,38 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -898,28 +898,28 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -927,37 +927,37 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -965,19 +965,19 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -985,19 +985,19 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1005,39 +1005,39 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="4" t="s">
         <v>62</v>
       </c>
